--- a/06_find_changes/02_change_thresholds_details/08_merge_glb_thresholds/gmw_glb_chng_thresholds_edits.xlsx
+++ b/06_find_changes/02_change_thresholds_details/08_merge_glb_thresholds/gmw_glb_chng_thresholds_edits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/Development/globalmangrovewatch/gmw_jaxa_sar_change_analysis/06_find_changes/02_change_thresholds_details/08_merge_glb_thresholds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B2CDD4-919D-6D4A-9AA4-2385FCBF8478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1214A69A-44E4-6E41-BC75-9E9B20797C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="37480" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6620" yWindow="500" windowWidth="42820" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global_threshold" sheetId="1" r:id="rId1"/>
@@ -914,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R137"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="U1" sqref="U1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -932,9 +932,11 @@
     <col min="11" max="14" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,8 +982,10 @@
       <c r="R1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -997,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>-0.11522375715295041</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1101,7 +1105,7 @@
         <v>0.95552674590138764</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>-2.1346178762664607</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>-0.42488657589282042</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>0.34870544156888883</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>-1.1743836689927605</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>-0.84178306777102208</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>-1.45910003428612</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>4.9867137421595018</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>4.7198210635055879</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>0.28673132626055775</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>1.8493068510264905</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1673,7 +1677,7 @@
         <v>8.2638119290068897</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
